--- a/CNOT21_uncoded.xlsx
+++ b/CNOT21_uncoded.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Atsushi/Documents/DOMath/Jupyter/Result analysis/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddrsq\OneDrive\IBM Q\qecc_benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622A0C35-45BE-904D-BB61-F730E204182B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2716B751-BA9E-4D70-A529-F20097647461}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="2160" windowWidth="25040" windowHeight="13940" xr2:uid="{CEB5DE83-1C43-F246-B4E3-2A0EEDF4A3F6}"/>
+    <workbookView xWindow="3840" yWindow="2160" windowWidth="25043" windowHeight="13943" xr2:uid="{CEB5DE83-1C43-F246-B4E3-2A0EEDF4A3F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -392,18 +392,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DB9F34-3579-A643-8F0D-013699AECF9E}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+    <col min="6" max="6" width="21.8125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,7 +420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>0</v>
       </c>
@@ -441,7 +441,7 @@
         <v>0.9658203125</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>0</v>
       </c>
@@ -462,7 +462,7 @@
         <v>0.94921875</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>0</v>
       </c>
@@ -483,7 +483,7 @@
         <v>0.94921875</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>0</v>
       </c>
@@ -504,7 +504,7 @@
         <v>0.9521484375</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>0</v>
       </c>
@@ -525,7 +525,7 @@
         <v>0.955078125</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>0</v>
       </c>
@@ -546,7 +546,7 @@
         <v>0.9560546875</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>0</v>
       </c>
@@ -567,7 +567,7 @@
         <v>0.9462890625</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>0</v>
       </c>
@@ -588,7 +588,7 @@
         <v>0.95703125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>0</v>
       </c>
@@ -608,8 +608,12 @@
         <f t="shared" si="0"/>
         <v>0.9541015625</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <f xml:space="preserve"> AVERAGE(F2:F10)</f>
+        <v>0.95388454861111116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>1</v>
       </c>
@@ -630,7 +634,7 @@
         <v>0.9033203125</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>1</v>
       </c>
@@ -651,7 +655,7 @@
         <v>0.8916015625</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>1</v>
       </c>
@@ -672,7 +676,7 @@
         <v>0.822265625</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>1</v>
       </c>
@@ -693,7 +697,7 @@
         <v>0.8662109375</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>1</v>
       </c>
@@ -714,7 +718,7 @@
         <v>0.8798828125</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>1</v>
       </c>
@@ -735,7 +739,7 @@
         <v>0.85546875</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>1</v>
       </c>
@@ -756,7 +760,7 @@
         <v>0.845703125</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>1</v>
       </c>
@@ -777,7 +781,7 @@
         <v>0.8837890625</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>1</v>
       </c>
@@ -797,8 +801,12 @@
         <f t="shared" si="1"/>
         <v>0.91015625</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <f>AVERAGE(F11:F19)</f>
+        <v>0.87315538194444442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>2</v>
       </c>
@@ -819,7 +827,7 @@
         <v>0.83203125</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>2</v>
       </c>
@@ -840,7 +848,7 @@
         <v>0.8203125</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>2</v>
       </c>
@@ -861,7 +869,7 @@
         <v>0.84765625</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>2</v>
       </c>
@@ -882,7 +890,7 @@
         <v>0.806640625</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>2</v>
       </c>
@@ -903,7 +911,7 @@
         <v>0.8232421875</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>2</v>
       </c>
@@ -924,7 +932,7 @@
         <v>0.80859375</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>2</v>
       </c>
@@ -945,7 +953,7 @@
         <v>0.822265625</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>2</v>
       </c>
@@ -966,7 +974,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>2</v>
       </c>
@@ -986,8 +994,12 @@
         <f t="shared" si="2"/>
         <v>0.828125</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <f>AVERAGE(F20:F28)</f>
+        <v>0.82237413194444442</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>3</v>
       </c>
@@ -1008,7 +1020,7 @@
         <v>0.8662109375</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1029,7 +1041,7 @@
         <v>0.8828125</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1050,7 +1062,7 @@
         <v>0.8828125</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1071,7 +1083,7 @@
         <v>0.8828125</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1092,7 +1104,7 @@
         <v>0.8359375</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1113,7 +1125,7 @@
         <v>0.8271484375</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>3</v>
       </c>
@@ -1134,7 +1146,7 @@
         <v>0.8271484375</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>3</v>
       </c>
@@ -1155,7 +1167,7 @@
         <v>0.8154296875</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>3</v>
       </c>
@@ -1175,8 +1187,12 @@
         <f t="shared" si="3"/>
         <v>0.82421875</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37">
+        <f>AVERAGE(F29:F37)</f>
+        <v>0.84939236111111116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
       <c r="F38">
         <f>AVERAGE(F2:F37)</f>
         <v>0.87470160590277779</v>
